--- a/docss/trend/portugal/E_huntington.xlsx
+++ b/docss/trend/portugal/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\portugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B1" sqref="B1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>2002</v>
       </c>
       <c r="B2" s="7">
-        <v>0.10067845927551389</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C2" s="7">
-        <v>8.0393738113343716E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D2" s="7">
-        <v>0.11768728028982878</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2003</v>
       </c>
       <c r="B3" s="7">
-        <v>8.0534341279417276E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C3" s="7">
-        <v>0.1159543339163065</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D3" s="7">
-        <v>4.6218691393733025E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2004</v>
       </c>
       <c r="B4" s="7">
-        <v>0.12779806926846504</v>
+        <v>0.128</v>
       </c>
       <c r="C4" s="7">
-        <v>0.16497017722576857</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D4" s="7">
-        <v>9.4696055166423321E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2005</v>
       </c>
       <c r="B5" s="7">
-        <v>5.1973240915685892E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C5" s="7">
-        <v>5.3206082433462143E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>5.0678657367825508E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2006</v>
       </c>
       <c r="B6" s="7">
-        <v>0.14000853477045894</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C6" s="7">
-        <v>0.17834097985178232</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D6" s="7">
-        <v>0.11056532897055149</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2007</v>
       </c>
       <c r="B7" s="7">
-        <v>8.820720249786973E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C7" s="7">
-        <v>6.422947533428669E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D7" s="7">
-        <v>0.11296649370342493</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2008</v>
       </c>
       <c r="B8" s="7">
-        <v>0.13356928480789065</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C8" s="7">
-        <v>0.16407215502113104</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D8" s="7">
-        <v>0.10598330572247505</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2009</v>
       </c>
       <c r="B9" s="7">
-        <v>0.17046786984428763</v>
+        <v>0.17</v>
       </c>
       <c r="C9" s="7">
-        <v>0.21313030458986759</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D9" s="7">
-        <v>0.13075583707541227</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2010</v>
       </c>
       <c r="B10" s="7">
-        <v>0.11130646290257573</v>
+        <v>0.111</v>
       </c>
       <c r="C10" s="7">
-        <v>0.17395255155861378</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D10" s="7">
-        <v>5.9320091269910336E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2011</v>
       </c>
       <c r="B11" s="7">
-        <v>0.18030658317729831</v>
+        <v>0.18</v>
       </c>
       <c r="C11" s="7">
-        <v>0.1098825316876173</v>
+        <v>0.11</v>
       </c>
       <c r="D11" s="7">
-        <v>0.24144730577245355</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
   </sheetData>
